--- a/Datos/Database by set/Set with text box/Xlsx sets/Modern Masters 2015 Tokens (TMM2).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Modern Masters 2015 Tokens (TMM2).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,371 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eldrazi Spawn</t>
+          <t>('Eldrazi Spawn', ['Token Creature — Eldrazi Spawn', 'Sacrifice this creature: Add {C}.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Spawn</t>
+          <t>('Elephant', ['Token Creature — Elephant', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sacrifice this creature: Add {C}.</t>
+          <t>('Faerie Rogue', ['Token Creature — Faerie Rogue', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>('Germ', ['Token Creature — Germ', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eldrazi Spawn</t>
+          <t>('Golem', ['Token Artifact Creature — Golem', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Spawn</t>
+          <t>('Insect', ['Token Creature — Insect', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sacrifice this creature: Add {C}.</t>
+          <t>('Myr', ['Token Artifact Creature — Myr', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eldrazi Spawn</t>
+          <t>('Snake', ['Token Creature — Snake', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Spawn</t>
+          <t>('Soldier', ['Token Creature — Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sacrifice this creature: Add {C}.</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>('Thrull', ['Token Creature — Thrull', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Elephant</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Token Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Faerie Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Token Creature — Faerie Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Token Creature — Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Token Creature — Thrull</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Worm</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Token Creature — Worm</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Worm', ['Token Creature — Worm', '1/1'])</t>
         </is>
       </c>
     </row>
